--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>主键</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>building_auto_findtreasure</t>
+  </si>
+  <si>
+    <t>寻宝</t>
+  </si>
+  <si>
+    <t>npc/abilities/common/building_auto_findtreasure</t>
+  </si>
+  <si>
+    <t>auto_treasure</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -346,12 +361,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,10 +375,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,16 +390,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -399,22 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,14 +428,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +443,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +491,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,25 +505,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +525,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,43 +541,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,133 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,15 +726,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -727,6 +740,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,58 +821,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,137 +844,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -982,6 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1301,17 +1324,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
@@ -1668,6 +1691,41 @@
       <c r="T4" s="3"/>
       <c r="X4" s="10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" spans="1:25">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1710,10 +1768,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1838,10 +1896,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -1966,141 +2024,141 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -361,9 +361,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -382,9 +382,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +399,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,22 +427,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,15 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,6 +479,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -498,33 +511,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -535,91 +535,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,67 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +726,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,7 +777,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,41 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -817,25 +826,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,16 +844,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,115 +862,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,11 +1327,11 @@
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1722,7 +1722,7 @@
         <v>83</v>
       </c>
       <c r="X5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="10">
         <v>0</v>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
   <si>
     <t>主键</t>
   </si>
@@ -224,28 +224,34 @@
     <t>AbilitySpecial</t>
   </si>
   <si>
+    <t>ability_propertytool</t>
+  </si>
+  <si>
+    <t>空技能</t>
+  </si>
+  <si>
+    <t>ability_lua</t>
+  </si>
+  <si>
+    <t>npc/propertystat/ability_propertytool</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
     <t>ability_empty</t>
   </si>
   <si>
-    <t>空技能</t>
-  </si>
-  <si>
     <t>ability_datadriven</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
-  </si>
-  <si>
     <t>ability_tp</t>
   </si>
   <si>
     <t>传送</t>
-  </si>
-  <si>
-    <t>ability_lua</t>
   </si>
   <si>
     <t>npc/abilities/common/ability_tp</t>
@@ -361,12 +367,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,19 +388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="7.5"/>
+      <color rgb="FFB392F0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -405,14 +403,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -426,22 +454,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,23 +504,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,45 +532,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -535,49 +548,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,133 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,35 +739,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -773,11 +757,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,32 +820,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,137 +857,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1004,7 +1017,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1324,17 +1343,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
@@ -1642,9 +1661,10 @@
       <c r="E3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3">
         <v>0</v>
       </c>
@@ -1652,81 +1672,110 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" s="3" customFormat="1" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="X4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:25">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
+      <c r="I5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
       <c r="X5" s="10">
         <v>1</v>
       </c>
-      <c r="Y5" s="10">
+    </row>
+    <row r="6" ht="15.75" spans="1:25">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10">
         <v>0</v>
       </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,7 +1793,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -1768,10 +1817,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1896,10 +1945,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -2024,141 +2073,141 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:42">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1350,10 +1350,10 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
@@ -1664,7 +1664,6 @@
       <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3">
         <v>0</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.5" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -1793,7 +1792,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2199,7 +2198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:42">
+    <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -1350,12 +1350,12 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.8916666666667" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.8333333333333" style="9" customWidth="1"/>
     <col min="6" max="6" width="48.4166666666667" style="9" customWidth="1"/>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AQ$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AR$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
   <si>
     <t>主键</t>
   </si>
@@ -29,6 +29,9 @@
     <t>基类</t>
   </si>
   <si>
+    <t>是否技能列表隐藏</t>
+  </si>
+  <si>
     <t>对应脚本</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>BaseClass</t>
   </si>
   <si>
+    <t>CustomHidden</t>
+  </si>
+  <si>
     <t>ScriptFile</t>
   </si>
   <si>
@@ -224,34 +230,28 @@
     <t>AbilitySpecial</t>
   </si>
   <si>
-    <t>ability_propertytool</t>
+    <t>ability_empty</t>
   </si>
   <si>
     <t>空技能</t>
   </si>
   <si>
+    <t>ability_datadriven</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
+    <t>ability_tp</t>
+  </si>
+  <si>
+    <t>传送</t>
+  </si>
+  <si>
     <t>ability_lua</t>
-  </si>
-  <si>
-    <t>npc/propertystat/ability_propertytool</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
-  </si>
-  <si>
-    <t>ability_empty</t>
-  </si>
-  <si>
-    <t>ability_datadriven</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>ability_tp</t>
-  </si>
-  <si>
-    <t>传送</t>
   </si>
   <si>
     <t>npc/abilities/common/ability_tp</t>
@@ -1343,47 +1343,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="22.8916666666667" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.8333333333333" style="9" customWidth="1"/>
-    <col min="6" max="6" width="48.4166666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.0833333333333" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.4166666666667" style="9" customWidth="1"/>
-    <col min="10" max="11" width="20.9166666666667" style="9" customWidth="1"/>
-    <col min="12" max="15" width="13.1666666666667" style="10" customWidth="1"/>
-    <col min="16" max="17" width="20.5" style="10" customWidth="1"/>
-    <col min="18" max="19" width="17.75" style="10" customWidth="1"/>
-    <col min="20" max="20" width="17.3333333333333" style="10" customWidth="1"/>
-    <col min="21" max="21" width="14.3333333333333" style="10" customWidth="1"/>
-    <col min="22" max="22" width="13.8333333333333" style="10" customWidth="1"/>
-    <col min="23" max="23" width="12.4166666666667" style="10" customWidth="1"/>
-    <col min="24" max="24" width="15.75" style="10" customWidth="1"/>
-    <col min="25" max="27" width="11.9166666666667" style="10" customWidth="1"/>
-    <col min="28" max="28" width="17.6666666666667" style="10" customWidth="1"/>
-    <col min="29" max="29" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="30" max="30" width="17" style="10" customWidth="1"/>
-    <col min="31" max="31" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="32" max="32" width="12.6666666666667" style="10" customWidth="1"/>
-    <col min="33" max="33" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="34" max="34" width="12.5" style="10" customWidth="1"/>
-    <col min="35" max="35" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="36" max="43" width="9.75" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.8333333333333" style="9" customWidth="1"/>
+    <col min="7" max="7" width="48.4166666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.0833333333333" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.3333333333333" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.4166666666667" style="9" customWidth="1"/>
+    <col min="11" max="12" width="20.9166666666667" style="9" customWidth="1"/>
+    <col min="13" max="16" width="13.1666666666667" style="10" customWidth="1"/>
+    <col min="17" max="18" width="20.5" style="10" customWidth="1"/>
+    <col min="19" max="20" width="17.75" style="10" customWidth="1"/>
+    <col min="21" max="21" width="17.3333333333333" style="10" customWidth="1"/>
+    <col min="22" max="22" width="14.3333333333333" style="10" customWidth="1"/>
+    <col min="23" max="23" width="13.8333333333333" style="10" customWidth="1"/>
+    <col min="24" max="24" width="12.4166666666667" style="10" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="10" customWidth="1"/>
+    <col min="26" max="28" width="11.9166666666667" style="10" customWidth="1"/>
+    <col min="29" max="29" width="17.6666666666667" style="10" customWidth="1"/>
+    <col min="30" max="30" width="13.6666666666667" style="10" customWidth="1"/>
+    <col min="31" max="31" width="17" style="10" customWidth="1"/>
+    <col min="32" max="32" width="13.6666666666667" style="10" customWidth="1"/>
+    <col min="33" max="33" width="12.6666666666667" style="10" customWidth="1"/>
+    <col min="34" max="34" width="11.8333333333333" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.5" style="10" customWidth="1"/>
+    <col min="36" max="36" width="11.8333333333333" style="10" customWidth="1"/>
+    <col min="37" max="44" width="9.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:44">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1399,16 +1399,16 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1417,7 +1417,7 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -1435,22 +1435,22 @@
       <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -1513,268 +1513,259 @@
       <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:44">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
+    <row r="3" s="3" customFormat="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="3">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>72</v>
+      <c r="M3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:12">
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="3">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="Y4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" spans="1:26">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="X5" s="10">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13"/>
     </row>
-    <row r="6" ht="15.5" spans="1:25">
-      <c r="A6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>0</v>
-      </c>
+    <row r="10" spans="6:6">
+      <c r="F10" s="4"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="13"/>
+    <row r="11" spans="6:6">
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,10 +1777,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1797,24 +1788,24 @@
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="14.4166666666667" customWidth="1"/>
-    <col min="4" max="5" width="9.41666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="10" width="21.5833333333333" customWidth="1"/>
-    <col min="11" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="16" width="21.1666666666667" customWidth="1"/>
-    <col min="17" max="17" width="18.4166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="17.9166666666667" customWidth="1"/>
-    <col min="20" max="20" width="18.9166666666667" customWidth="1"/>
-    <col min="21" max="21" width="14.3333333333333" customWidth="1"/>
-    <col min="22" max="22" width="15.3333333333333" customWidth="1"/>
-    <col min="23" max="23" width="15.0833333333333" customWidth="1"/>
-    <col min="24" max="26" width="14.9166666666667" customWidth="1"/>
-    <col min="27" max="42" width="12.0833333333333" customWidth="1"/>
+    <col min="4" max="6" width="9.41666666666667" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
+    <col min="8" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="11" width="21.5833333333333" customWidth="1"/>
+    <col min="12" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="17" width="21.1666666666667" customWidth="1"/>
+    <col min="18" max="18" width="18.4166666666667" customWidth="1"/>
+    <col min="19" max="19" width="11.6666666666667" customWidth="1"/>
+    <col min="20" max="20" width="17.9166666666667" customWidth="1"/>
+    <col min="21" max="21" width="18.9166666666667" customWidth="1"/>
+    <col min="22" max="22" width="14.3333333333333" customWidth="1"/>
+    <col min="23" max="23" width="15.3333333333333" customWidth="1"/>
+    <col min="24" max="24" width="15.0833333333333" customWidth="1"/>
+    <col min="25" max="27" width="14.9166666666667" customWidth="1"/>
+    <col min="28" max="43" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1827,16 +1818,16 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1845,7 +1836,7 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1863,22 +1854,22 @@
       <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -1941,8 +1932,11 @@
       <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1950,127 +1944,130 @@
         <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -2144,61 +2141,64 @@
         <v>93</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -2209,135 +2209,142 @@
         <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5"/>
     </row>
-    <row r="8" spans="9:14">
-      <c r="I8" s="5"/>
+    <row r="8" spans="5:15">
+      <c r="E8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2359,8 +2366,9 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:23">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2370,20 +2378,21 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:22">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2400,10 +2409,11 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:18">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2420,6 +2430,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/abilities/common_abilities.xlsx
+++ b/code/excels/abilities/common_abilities.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AR$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AS$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="116">
   <si>
     <t>主键</t>
   </si>
@@ -80,7 +80,7 @@
     <t>施法动画</t>
   </si>
   <si>
-    <t>技能施法点？</t>
+    <t>技能施法前摇</t>
   </si>
   <si>
     <t>施法范围</t>
@@ -89,6 +89,9 @@
     <t>冷却时间</t>
   </si>
   <si>
+    <t>持续施法时间</t>
+  </si>
+  <si>
     <t>技能耗蓝</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t>AbilityCooldown</t>
+  </si>
+  <si>
+    <t>AbilityChannelTime</t>
   </si>
   <si>
     <t>AbilityManaCost</t>
@@ -987,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1007,6 +1013,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1343,57 +1353,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.8916666666667" style="8" customWidth="1"/>
-    <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
-    <col min="5" max="6" width="15.8333333333333" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.4166666666667" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.0833333333333" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.4166666666667" style="9" customWidth="1"/>
-    <col min="11" max="12" width="20.9166666666667" style="9" customWidth="1"/>
-    <col min="13" max="16" width="13.1666666666667" style="10" customWidth="1"/>
-    <col min="17" max="18" width="20.5" style="10" customWidth="1"/>
-    <col min="19" max="20" width="17.75" style="10" customWidth="1"/>
-    <col min="21" max="21" width="17.3333333333333" style="10" customWidth="1"/>
-    <col min="22" max="22" width="14.3333333333333" style="10" customWidth="1"/>
-    <col min="23" max="23" width="13.8333333333333" style="10" customWidth="1"/>
-    <col min="24" max="24" width="12.4166666666667" style="10" customWidth="1"/>
-    <col min="25" max="25" width="15.75" style="10" customWidth="1"/>
-    <col min="26" max="28" width="11.9166666666667" style="10" customWidth="1"/>
-    <col min="29" max="29" width="17.6666666666667" style="10" customWidth="1"/>
-    <col min="30" max="30" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="31" max="31" width="17" style="10" customWidth="1"/>
-    <col min="32" max="32" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="33" max="33" width="12.6666666666667" style="10" customWidth="1"/>
-    <col min="34" max="34" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="35" max="35" width="12.5" style="10" customWidth="1"/>
-    <col min="36" max="36" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="37" max="44" width="9.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.8916666666667" style="10" customWidth="1"/>
+    <col min="2" max="4" width="8.75" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.8333333333333" style="11" customWidth="1"/>
+    <col min="7" max="7" width="48.4166666666667" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.0833333333333" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.3333333333333" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.4166666666667" style="11" customWidth="1"/>
+    <col min="11" max="12" width="20.9166666666667" style="11" customWidth="1"/>
+    <col min="13" max="16" width="13.1666666666667" style="12" customWidth="1"/>
+    <col min="17" max="18" width="20.5" style="12" customWidth="1"/>
+    <col min="19" max="20" width="17.75" style="12" customWidth="1"/>
+    <col min="21" max="21" width="17.3333333333333" style="12" customWidth="1"/>
+    <col min="22" max="22" width="14.3333333333333" style="12" customWidth="1"/>
+    <col min="23" max="23" width="13.8333333333333" style="12" customWidth="1"/>
+    <col min="24" max="24" width="12.4166666666667" style="12" customWidth="1"/>
+    <col min="25" max="26" width="15.75" style="12" customWidth="1"/>
+    <col min="27" max="29" width="11.9166666666667" style="12" customWidth="1"/>
+    <col min="30" max="30" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="31" max="31" width="13.6666666666667" style="12" customWidth="1"/>
+    <col min="32" max="32" width="17" style="12" customWidth="1"/>
+    <col min="33" max="33" width="13.6666666666667" style="12" customWidth="1"/>
+    <col min="34" max="34" width="12.6666666666667" style="12" customWidth="1"/>
+    <col min="35" max="35" width="11.8333333333333" style="12" customWidth="1"/>
+    <col min="36" max="36" width="12.5" style="12" customWidth="1"/>
+    <col min="37" max="37" width="11.8333333333333" style="12" customWidth="1"/>
+    <col min="38" max="45" width="9.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:44">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1459,7 +1469,7 @@
       <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="AA1" s="4" t="s">
@@ -1516,199 +1526,205 @@
       <c r="AR1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AS1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:44">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:45">
       <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Z2" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="AA2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>73</v>
+      <c r="H3" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1718,48 +1734,48 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="Y4" s="10">
+      <c r="Y4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:26">
+    <row r="5" ht="15.5" spans="1:27">
       <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="9">
+        <v>85</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" s="10">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="12">
         <v>1</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AA5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="4"/>
@@ -1777,10 +1793,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1800,17 +1816,17 @@
     <col min="21" max="21" width="18.9166666666667" customWidth="1"/>
     <col min="22" max="22" width="14.3333333333333" customWidth="1"/>
     <col min="23" max="23" width="15.3333333333333" customWidth="1"/>
-    <col min="24" max="24" width="15.0833333333333" customWidth="1"/>
-    <col min="25" max="27" width="14.9166666666667" customWidth="1"/>
-    <col min="28" max="43" width="12.0833333333333" customWidth="1"/>
+    <col min="24" max="25" width="15.0833333333333" customWidth="1"/>
+    <col min="26" max="28" width="14.9166666666667" customWidth="1"/>
+    <col min="29" max="44" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:44">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1878,7 +1894,7 @@
       <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -1935,404 +1951,416 @@
       <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:44">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Y2" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="Z2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5"/>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" ht="15.5" spans="5:25">
       <c r="E8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2340,9 +2368,11 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
+      <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" ht="15.5" spans="5:25">
       <c r="E9" s="3"/>
+      <c r="Y9" s="8"/>
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="4"/>
